--- a/MATHLAB/Formula 1.xlsx
+++ b/MATHLAB/Formula 1.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEBSITE MATERIALS\SOLECTHON WEBSITE\MATHLAB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8364EA36-7036-4B20-B40D-786794622FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Info"/>
-    <sheet r:id="rId2" sheetId="2" name="Torque Curve"/>
+    <sheet name="Info" sheetId="1" r:id="rId1"/>
+    <sheet name="Torque Curve" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -329,7 +335,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
@@ -350,7 +356,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFffffff"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -364,22 +370,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5b9bd5"/>
+        <fgColor rgb="FF5B9BD5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9dc3e6"/>
+        <fgColor rgb="FF9DC3E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFbdd7ee"/>
+        <fgColor rgb="FFBDD7EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFdeebf7"/>
+        <fgColor rgb="FFDEEBF7"/>
       </patternFill>
     </fill>
   </fills>
@@ -589,7 +595,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,10 +607,10 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,7 +622,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -631,7 +637,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -646,7 +652,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -657,162 +663,154 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B19" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:B19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B19" totalsRowShown="0">
+  <autoFilter ref="A1:B19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn name="Engine Speed [rpm]" id="1"/>
-    <tableColumn name="Torque [Nm]" id="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Engine Speed [rpm]"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Torque [Nm]"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -821,10 +819,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -862,71 +860,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -954,7 +952,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -977,11 +975,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -990,13 +988,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1006,7 +1004,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1015,7 +1013,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1024,7 +1022,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1032,10 +1030,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1100,789 +1098,792 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B40" sqref="B37:B40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="42" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="43" width="30.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="44" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="43" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="43" width="81.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="12" t="s">
+      <c r="D3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="16">
         <v>815.11</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17" t="s">
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="17">
         <v>45</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="20">
         <v>2971.8</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="22" t="s">
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="20">
         <v>15</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="25" t="s">
+      <c r="D7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="29">
-        <v>-0.8581</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="30" t="s">
+      <c r="C9" s="24">
+        <v>-0.85809999999999997</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28" t="s">
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="26">
         <v>1</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="30"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28" t="s">
+      <c r="D10" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="26">
         <v>1</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="30"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28" t="s">
+      <c r="D11" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="26">
         <v>50</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="30"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28" t="s">
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="26">
         <v>1</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="30"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17" t="s">
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+      <c r="B14" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="32">
-        <v>1.225</v>
-      </c>
-      <c r="D14" s="17" t="s">
+      <c r="C14" s="27">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="16">
         <v>250</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28" t="s">
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="26">
         <v>40</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28" t="s">
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="24">
         <v>0.45</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="30" t="s">
+      <c r="D17" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28" t="s">
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="26">
         <v>6</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="30" t="s">
+      <c r="D18" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28" t="s">
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="26">
         <v>40</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28" t="s">
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="26">
         <v>25</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
+      <c r="B21" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="17">
         <v>4</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="16">
         <v>1</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28" t="s">
+      <c r="D22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="26">
         <v>300</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28" t="s">
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
+      <c r="B24" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="29">
-        <v>-0.001</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="30" t="s">
+      <c r="C24" s="24">
+        <v>-1E-3</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28" t="s">
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
+      <c r="B25" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="26">
         <v>2</v>
       </c>
-      <c r="D25" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="30" t="s">
+      <c r="D25" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28" t="s">
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="26">
         <v>250</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28" t="s">
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="29">
-        <v>0.0001</v>
-      </c>
-      <c r="D27" s="28" t="s">
+      <c r="C27" s="24">
+        <v>1E-4</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28" t="s">
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
+      <c r="B28" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="26">
         <v>2</v>
       </c>
-      <c r="D28" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="30" t="s">
+      <c r="D28" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28" t="s">
+    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="26">
         <v>250</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28" t="s">
+    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
+      <c r="B30" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="29">
-        <v>0.0001</v>
-      </c>
-      <c r="D30" s="28" t="s">
+      <c r="C30" s="24">
+        <v>1E-4</v>
+      </c>
+      <c r="D30" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28" t="s">
+    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
+      <c r="B31" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="26">
         <v>800</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="25" t="s">
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17" t="s">
+    <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="37"/>
+      <c r="B32" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="17">
         <v>1000</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="16">
         <v>1</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28" t="s">
+      <c r="D33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="24">
         <v>0.35</v>
       </c>
-      <c r="D34" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="30" t="s">
+      <c r="D34" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17" t="s">
+    <row r="35" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="37"/>
+      <c r="B35" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="28">
         <v>47200000</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
-      <c r="A36" s="34" t="s">
+    <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="35"/>
-      <c r="B37" s="36" t="s">
+      <c r="D36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
+      <c r="B37" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="37">
+      <c r="C37" s="30">
         <v>0.01</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="E37" s="38" t="s">
+      <c r="E37" s="31" t="s">
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="35"/>
-      <c r="B38" s="36" t="s">
+    <row r="38" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="40"/>
+      <c r="B38" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="39">
+      <c r="C38" s="32">
         <v>1</v>
       </c>
-      <c r="D38" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="38" t="s">
+      <c r="D38" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="35"/>
-      <c r="B39" s="36" t="s">
+    <row r="39" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="37">
+      <c r="C39" s="30">
         <v>0.92</v>
       </c>
-      <c r="D39" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="38" t="s">
+      <c r="D39" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="31" t="s">
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="35"/>
-      <c r="B40" s="36" t="s">
+    <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
+      <c r="B40" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="37">
+      <c r="C40" s="30">
         <v>0.98</v>
       </c>
-      <c r="D40" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="38" t="s">
+      <c r="D40" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="35"/>
-      <c r="B41" s="28" t="s">
+    <row r="41" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
+      <c r="B41" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="26">
         <v>1</v>
       </c>
-      <c r="D41" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="30" t="s">
+      <c r="D41" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="35"/>
-      <c r="B42" s="28" t="s">
+    <row r="42" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
+      <c r="B42" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="31">
-        <v>7</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="30"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="35"/>
-      <c r="B43" s="28" t="s">
+      <c r="C42" s="26">
+        <v>6</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="25"/>
+    </row>
+    <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
+      <c r="B43" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="29">
-        <v>2.9167</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="30"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="35"/>
-      <c r="B44" s="28" t="s">
+      <c r="C43" s="24">
+        <v>2.9167000000000001</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="25"/>
+    </row>
+    <row r="44" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="40"/>
+      <c r="B44" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="24">
         <v>1.875</v>
       </c>
-      <c r="D44" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="30"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="35"/>
-      <c r="B45" s="28" t="s">
+      <c r="D44" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="25"/>
+    </row>
+    <row r="45" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="40"/>
+      <c r="B45" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="24">
         <v>1.3809</v>
       </c>
-      <c r="D45" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="30"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="35"/>
-      <c r="B46" s="28" t="s">
+      <c r="D45" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="25"/>
+    </row>
+    <row r="46" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="40"/>
+      <c r="B46" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="29">
-        <v>1.1154</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="30"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="35"/>
-      <c r="B47" s="28" t="s">
+      <c r="C46" s="24">
+        <v>1.1153999999999999</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="25"/>
+    </row>
+    <row r="47" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="40"/>
+      <c r="B47" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="29">
+      <c r="C47" s="24">
         <v>0.96</v>
       </c>
-      <c r="D47" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="30"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="35"/>
-      <c r="B48" s="28" t="s">
+      <c r="D47" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="25"/>
+    </row>
+    <row r="48" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="40"/>
+      <c r="B48" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="29">
-        <v>0.8889</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="30"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="35"/>
-      <c r="B49" s="28" t="s">
+      <c r="C48" s="24">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="25"/>
+    </row>
+    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="40"/>
+      <c r="B49" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="30"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="35"/>
-      <c r="B50" s="28" t="s">
+      <c r="C49" s="26"/>
+      <c r="D49" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="25"/>
+    </row>
+    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="40"/>
+      <c r="B50" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="40"/>
-      <c r="D50" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="30"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="35"/>
-      <c r="B51" s="28" t="s">
+      <c r="C50" s="33"/>
+      <c r="D50" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="25"/>
+    </row>
+    <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="40"/>
+      <c r="B51" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="40"/>
-      <c r="D51" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="30"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="C51" s="33"/>
+      <c r="D51" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="25"/>
+    </row>
+    <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="19"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A52"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="A15:A21"/>
     <mergeCell ref="A22:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1892,11 +1893,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1904,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row r="2" spans="1:2" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1000</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row r="3" spans="1:2" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2000</v>
       </c>
@@ -1920,7 +1921,7 @@
         <v>125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row r="4" spans="1:2" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3000</v>
       </c>
@@ -1928,7 +1929,7 @@
         <v>125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row r="5" spans="1:2" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4000</v>
       </c>
@@ -1936,7 +1937,7 @@
         <v>125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row r="6" spans="1:2" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5000</v>
       </c>
@@ -1944,7 +1945,7 @@
         <v>125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row r="7" spans="1:2" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6000</v>
       </c>
@@ -1952,7 +1953,7 @@
         <v>125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row r="8" spans="1:2" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7000</v>
       </c>
@@ -1960,7 +1961,7 @@
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row r="9" spans="1:2" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8000</v>
       </c>
@@ -1968,7 +1969,7 @@
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row r="10" spans="1:2" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9000</v>
       </c>
@@ -1976,7 +1977,7 @@
         <v>240</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row r="11" spans="1:2" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10000</v>
       </c>
@@ -1984,7 +1985,7 @@
         <v>270</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row r="12" spans="1:2" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11000</v>
       </c>
@@ -1992,7 +1993,7 @@
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row r="13" spans="1:2" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12000</v>
       </c>
@@ -2000,7 +2001,7 @@
         <v>340</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row r="14" spans="1:2" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13000</v>
       </c>
@@ -2008,7 +2009,7 @@
         <v>350</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row r="15" spans="1:2" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14000</v>
       </c>
@@ -2016,7 +2017,7 @@
         <v>340</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row r="16" spans="1:2" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15000</v>
       </c>
@@ -2024,7 +2025,7 @@
         <v>330</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row r="17" spans="1:2" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16000</v>
       </c>
@@ -2032,7 +2033,7 @@
         <v>325</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row r="18" spans="1:2" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17000</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>312</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="3">
+    <row r="19" spans="1:2" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18000</v>
       </c>
